--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crainax/war3/LH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\War3\Maps\Loopinghell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -107,45 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24k纯师哥</t>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永夜</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫魂晓然</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve"> </t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机制的矮人</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve"> </t>
@@ -157,13 +115,26 @@
       <t xml:space="preserve"> </t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丨紫魂丶晓然</t>
+  </si>
+  <si>
+    <t>24k纯师哥</t>
+  </si>
+  <si>
+    <t>永夜丶君</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,19 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:O19"/>
+  <dimension ref="F6:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:15" ht="15" thickBot="1"/>
+    <row r="7" spans="6:15">
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +595,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:15">
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -632,7 +607,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:15">
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -644,7 +619,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:15" ht="15" thickBot="1">
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -656,49 +631,84 @@
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>632066098</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>560584534</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>679792348</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>244103987</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1624950439</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>981252778</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>442300691</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
       <c r="F18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>127836247</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>747551996</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>238541434</v>
       </c>
     </row>
   </sheetData>
@@ -707,5 +717,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -128,6 +128,22 @@
   </si>
   <si>
     <t>永夜丶君</t>
+  </si>
+  <si>
+    <t>々飞羽</t>
+  </si>
+  <si>
+    <t>葫芦岛伪刁丝</t>
+  </si>
+  <si>
+    <t>大头奶粉</t>
+  </si>
+  <si>
+    <t>GodmanWison#5159</t>
+  </si>
+  <si>
+    <t>剡无荒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +587,7 @@
   <dimension ref="F6:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -703,6 +719,46 @@
         <v>747551996</v>
       </c>
     </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>1549153604</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>243951516</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <v>472054031</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>156566316</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>805389327</v>
+      </c>
+    </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
         <v>7</v>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -144,6 +144,32 @@
   <si>
     <t>剡无荒</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丨钰</t>
+  </si>
+  <si>
+    <t>Rrom</t>
+  </si>
+  <si>
+    <t>酱酱肉</t>
+  </si>
+  <si>
+    <t>冰霜之蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德尔福德尔</t>
+  </si>
+  <si>
+    <t>MrXu#5779</t>
+  </si>
+  <si>
+    <t>MS大刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五个马甲</t>
   </si>
 </sst>
 </file>
@@ -587,13 +613,15 @@
   <dimension ref="F6:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:15" ht="15" thickBot="1"/>
@@ -654,6 +682,12 @@
       <c r="G11">
         <v>632066098</v>
       </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>1386963254</v>
+      </c>
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
@@ -662,6 +696,12 @@
       <c r="G12">
         <v>560584534</v>
       </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>920323633</v>
+      </c>
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
@@ -670,6 +710,12 @@
       <c r="G13">
         <v>679792348</v>
       </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>2028760546</v>
+      </c>
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
@@ -678,6 +724,12 @@
       <c r="G14">
         <v>244103987</v>
       </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>76404545</v>
+      </c>
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
@@ -686,6 +738,12 @@
       <c r="G15">
         <v>1624950439</v>
       </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>772953595</v>
+      </c>
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
@@ -694,24 +752,42 @@
       <c r="G16">
         <v>981252778</v>
       </c>
-    </row>
-    <row r="17" spans="6:7">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>122150585</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17">
         <v>442300691</v>
       </c>
-    </row>
-    <row r="18" spans="6:7">
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>1866394937</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9">
       <c r="F18" t="s">
         <v>8</v>
       </c>
       <c r="G18">
         <v>127836247</v>
       </c>
-    </row>
-    <row r="19" spans="6:7">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>668865994</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -719,7 +795,7 @@
         <v>747551996</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:9">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -727,7 +803,7 @@
         <v>1549153604</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:9">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -735,7 +811,7 @@
         <v>243951516</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:9">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -743,7 +819,7 @@
         <v>472054031</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:9">
       <c r="F23" t="s">
         <v>14</v>
       </c>
@@ -751,7 +827,7 @@
         <v>156566316</v>
       </c>
     </row>
-    <row r="24" spans="6:7">
+    <row r="24" spans="6:9">
       <c r="F24" t="s">
         <v>15</v>
       </c>
@@ -759,7 +835,7 @@
         <v>805389327</v>
       </c>
     </row>
-    <row r="27" spans="6:7">
+    <row r="27" spans="6:9">
       <c r="F27" t="s">
         <v>7</v>
       </c>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\War3\Maps\Loopinghell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crainax/war3/LH/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27315" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -170,13 +173,39 @@
   </si>
   <si>
     <t>第五个马甲</t>
+  </si>
+  <si>
+    <t>执墨紫琰</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回杀</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve"> </t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,20 +641,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="158" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:15" ht="15" thickBot="1"/>
-    <row r="7" spans="6:15">
+    <row r="6" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +668,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="6:15">
+    <row r="8" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -651,7 +680,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -663,7 +692,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="6:15" ht="15" thickBot="1">
+    <row r="10" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -675,7 +704,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>1</v>
       </c>
@@ -689,7 +718,7 @@
         <v>1386963254</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
         <v>2</v>
       </c>
@@ -703,7 +732,7 @@
         <v>920323633</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -717,7 +746,7 @@
         <v>2028760546</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
         <v>4</v>
       </c>
@@ -731,7 +760,7 @@
         <v>76404545</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>5</v>
       </c>
@@ -745,7 +774,7 @@
         <v>772953595</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>9</v>
       </c>
@@ -759,7 +788,7 @@
         <v>122150585</v>
       </c>
     </row>
-    <row r="17" spans="6:9">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>10</v>
       </c>
@@ -773,7 +802,7 @@
         <v>1866394937</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -787,23 +816,35 @@
         <v>668865994</v>
       </c>
     </row>
-    <row r="19" spans="6:9">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19">
         <v>747551996</v>
       </c>
-    </row>
-    <row r="20" spans="6:9">
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>11465124</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20">
         <v>1549153604</v>
       </c>
-    </row>
-    <row r="21" spans="6:9">
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>1483305270</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -811,7 +852,7 @@
         <v>243951516</v>
       </c>
     </row>
-    <row r="22" spans="6:9">
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -819,7 +860,7 @@
         <v>472054031</v>
       </c>
     </row>
-    <row r="23" spans="6:9">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>14</v>
       </c>
@@ -827,7 +868,7 @@
         <v>156566316</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>15</v>
       </c>
@@ -835,7 +876,7 @@
         <v>805389327</v>
       </c>
     </row>
-    <row r="27" spans="6:9">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>7</v>
       </c>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crainax/war3/LH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\War3\Maps\Loopinghell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13545" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -198,6 +195,90 @@
     <rPh sb="2" eb="3">
       <t xml:space="preserve"> </t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丨袖手旁观丨</t>
+  </si>
+  <si>
+    <t>小牛同志丶</t>
+  </si>
+  <si>
+    <t>不武酱</t>
+  </si>
+  <si>
+    <t>蓝瘦香菇mmm</t>
+  </si>
+  <si>
+    <t>以可爱出名#5383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵死法师</t>
+  </si>
+  <si>
+    <t>SAODIH</t>
+  </si>
+  <si>
+    <t>玩腻玛个皮皮蛋</t>
+  </si>
+  <si>
+    <t>玩东方入魔的超#5563</t>
+  </si>
+  <si>
+    <t>猪食</t>
+  </si>
+  <si>
+    <t>小黑爱大白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲欢离合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickyly129</t>
+  </si>
+  <si>
+    <t>金笙丶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊轮回</t>
+  </si>
+  <si>
+    <t>相守不离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝可怜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的老王叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千枫落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q856101589</t>
+  </si>
+  <si>
+    <t>XXI1235</t>
+  </si>
+  <si>
+    <t>佛丿大湿兄</t>
+  </si>
+  <si>
+    <t>我是怪叔叔</t>
+  </si>
+  <si>
+    <t>我才不需要</t>
+  </si>
+  <si>
+    <t>play</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,20 +722,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="158" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="158" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="6:15" ht="15" thickBot="1"/>
+    <row r="7" spans="6:15">
       <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +753,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:15">
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -680,7 +765,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="6:15">
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -692,7 +777,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="6:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:15" ht="15" thickBot="1">
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -704,7 +789,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
         <v>1</v>
       </c>
@@ -717,8 +802,20 @@
       <c r="I11">
         <v>1386963254</v>
       </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>24682425</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11">
+        <v>1199483482</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>2</v>
       </c>
@@ -731,8 +828,20 @@
       <c r="I12">
         <v>920323633</v>
       </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>838476900</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>85817056</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -745,8 +854,20 @@
       <c r="I13">
         <v>2028760546</v>
       </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>21235704</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13">
+        <v>1884797690</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
         <v>4</v>
       </c>
@@ -759,8 +880,20 @@
       <c r="I14">
         <v>76404545</v>
       </c>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>259338775</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14">
+        <v>138245006</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
         <v>5</v>
       </c>
@@ -773,8 +906,20 @@
       <c r="I15">
         <v>772953595</v>
       </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>1945313488</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>55883798</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
         <v>9</v>
       </c>
@@ -787,8 +932,20 @@
       <c r="I16">
         <v>122150585</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>185409653</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16">
+        <v>237209239</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13">
       <c r="F17" t="s">
         <v>10</v>
       </c>
@@ -801,8 +958,20 @@
       <c r="I17">
         <v>1866394937</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>848895504</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>208207478</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13">
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -815,8 +984,14 @@
       <c r="I18">
         <v>668865994</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>970908405</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -829,8 +1004,14 @@
       <c r="I19">
         <v>11465124</v>
       </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>1406966725</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -843,40 +1024,94 @@
       <c r="I20">
         <v>1483305270</v>
       </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>476387019</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13">
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21">
         <v>243951516</v>
       </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21">
+        <v>2096927165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>1407806903</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13">
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22">
         <v>472054031</v>
       </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>89160614</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>39350822</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13">
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23">
         <v>156566316</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>416503868</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>947015907</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13">
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24">
         <v>805389327</v>
       </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24">
+        <v>366425370</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>1524326451</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13">
       <c r="F27" t="s">
         <v>7</v>
       </c>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGODLIKEE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="158" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="158" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -990,6 +994,12 @@
       <c r="K18">
         <v>970908405</v>
       </c>
+      <c r="L18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>764958705</v>
+      </c>
     </row>
     <row r="19" spans="6:13">
       <c r="F19" t="s">

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -284,6 +284,9 @@
   <si>
     <t>MGODLIKEE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬱鬱鬱吃屎鬱鬱鬱</t>
   </si>
 </sst>
 </file>
@@ -726,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="158" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="158" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -738,7 +741,7 @@
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1020,6 +1023,12 @@
       <c r="K19">
         <v>1406966725</v>
       </c>
+      <c r="L19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19">
+        <v>1556955637</v>
+      </c>
     </row>
     <row r="20" spans="6:13">
       <c r="F20" t="s">

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -287,6 +287,25 @@
   </si>
   <si>
     <t>鬱鬱鬱吃屎鬱鬱鬱</t>
+  </si>
+  <si>
+    <t>杨小威</t>
+  </si>
+  <si>
+    <t>Tiki丨波比</t>
+  </si>
+  <si>
+    <t>7.7.7</t>
+  </si>
+  <si>
+    <t>十一月是我de幸运</t>
+  </si>
+  <si>
+    <t>心说我不会</t>
+  </si>
+  <si>
+    <t>san</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="158" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="158" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -741,8 +760,9 @@
     <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.875" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:15" ht="15" thickBot="1"/>
@@ -821,6 +841,12 @@
       <c r="M11">
         <v>1199483482</v>
       </c>
+      <c r="N11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11">
+        <v>1846898150</v>
+      </c>
     </row>
     <row r="12" spans="6:15">
       <c r="F12" t="s">
@@ -1049,6 +1075,12 @@
       <c r="K20">
         <v>476387019</v>
       </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>95364001</v>
+      </c>
     </row>
     <row r="21" spans="6:13">
       <c r="F21" t="s">
@@ -1069,6 +1101,12 @@
       <c r="K21">
         <v>1407806903</v>
       </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21">
+        <v>1018574645</v>
+      </c>
     </row>
     <row r="22" spans="6:13">
       <c r="F22" t="s">
@@ -1089,6 +1127,12 @@
       <c r="K22">
         <v>39350822</v>
       </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22">
+        <v>748181006</v>
+      </c>
     </row>
     <row r="23" spans="6:13">
       <c r="F23" t="s">
@@ -1109,6 +1153,12 @@
       <c r="K23">
         <v>947015907</v>
       </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23">
+        <v>1968941945</v>
+      </c>
     </row>
     <row r="24" spans="6:13">
       <c r="F24" t="s">
@@ -1128,6 +1178,12 @@
       </c>
       <c r="K24">
         <v>1524326451</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24">
+        <v>281722192</v>
       </c>
     </row>
     <row r="27" spans="6:13">

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -289,15 +289,9 @@
     <t>鬱鬱鬱吃屎鬱鬱鬱</t>
   </si>
   <si>
-    <t>杨小威</t>
-  </si>
-  <si>
     <t>Tiki丨波比</t>
   </si>
   <si>
-    <t>7.7.7</t>
-  </si>
-  <si>
     <t>十一月是我de幸运</t>
   </si>
   <si>
@@ -306,6 +300,64 @@
   <si>
     <t>san</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunhua1994</t>
+  </si>
+  <si>
+    <t>孙天才时尚</t>
+  </si>
+  <si>
+    <t>流年有点冷</t>
+  </si>
+  <si>
+    <t>水果西瓜</t>
+  </si>
+  <si>
+    <t>翻车の司机</t>
+  </si>
+  <si>
+    <t>威小杨</t>
+  </si>
+  <si>
+    <t>喵了个咪了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六江波本#5969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御姐沁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝丶无心丿</t>
+  </si>
+  <si>
+    <t>霸气零点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四兮禾斗</t>
+  </si>
+  <si>
+    <t>静静等待丶</t>
+  </si>
+  <si>
+    <t>lidonghao729</t>
+  </si>
+  <si>
+    <t>没空解释了上车吧</t>
+  </si>
+  <si>
+    <t>℡悠悠∮over</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Demsod丶血狼</t>
   </si>
 </sst>
 </file>
@@ -748,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="158" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="158" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -762,6 +814,7 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.75" customWidth="1"/>
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,7 +895,7 @@
         <v>1199483482</v>
       </c>
       <c r="N11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O11">
         <v>1846898150</v>
@@ -873,6 +926,12 @@
       <c r="M12">
         <v>85817056</v>
       </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12">
+        <v>162418494</v>
+      </c>
     </row>
     <row r="13" spans="6:15">
       <c r="F13" t="s">
@@ -899,6 +958,12 @@
       <c r="M13">
         <v>1884797690</v>
       </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13">
+        <v>1028656343</v>
+      </c>
     </row>
     <row r="14" spans="6:15">
       <c r="F14" t="s">
@@ -925,6 +990,12 @@
       <c r="M14">
         <v>138245006</v>
       </c>
+      <c r="N14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14">
+        <v>871412081</v>
+      </c>
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
@@ -951,6 +1022,12 @@
       <c r="M15">
         <v>55883798</v>
       </c>
+      <c r="N15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15">
+        <v>724251537</v>
+      </c>
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
@@ -977,8 +1054,14 @@
       <c r="M16">
         <v>237209239</v>
       </c>
-    </row>
-    <row r="17" spans="6:13">
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16">
+        <v>572061793</v>
+      </c>
+    </row>
+    <row r="17" spans="6:15">
       <c r="F17" t="s">
         <v>10</v>
       </c>
@@ -1003,8 +1086,14 @@
       <c r="M17">
         <v>208207478</v>
       </c>
-    </row>
-    <row r="18" spans="6:13">
+      <c r="N17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17">
+        <v>1562039753</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -1029,8 +1118,14 @@
       <c r="M18">
         <v>764958705</v>
       </c>
-    </row>
-    <row r="19" spans="6:13">
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18">
+        <v>27535638</v>
+      </c>
+    </row>
+    <row r="19" spans="6:15">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1150,14 @@
       <c r="M19">
         <v>1556955637</v>
       </c>
-    </row>
-    <row r="20" spans="6:13">
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19">
+        <v>2856770</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -1076,13 +1177,19 @@
         <v>476387019</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>95364001</v>
-      </c>
-    </row>
-    <row r="21" spans="6:13">
+        <v>769983234</v>
+      </c>
+      <c r="N20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20">
+        <v>29748027</v>
+      </c>
+    </row>
+    <row r="21" spans="6:15">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -1102,13 +1209,19 @@
         <v>1407806903</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21">
         <v>1018574645</v>
       </c>
-    </row>
-    <row r="22" spans="6:13">
+      <c r="N21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21">
+        <v>78547297</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -1128,13 +1241,19 @@
         <v>39350822</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>748181006</v>
-      </c>
-    </row>
-    <row r="23" spans="6:13">
+        <v>1602970119</v>
+      </c>
+      <c r="N22" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22">
+        <v>1691009533</v>
+      </c>
+    </row>
+    <row r="23" spans="6:15">
       <c r="F23" t="s">
         <v>14</v>
       </c>
@@ -1154,13 +1273,19 @@
         <v>947015907</v>
       </c>
       <c r="L23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M23">
         <v>1968941945</v>
       </c>
-    </row>
-    <row r="24" spans="6:13">
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23">
+        <v>108509507</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
       <c r="F24" t="s">
         <v>15</v>
       </c>
@@ -1180,18 +1305,46 @@
         <v>1524326451</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M24">
         <v>281722192</v>
       </c>
-    </row>
-    <row r="27" spans="6:13">
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24">
+        <v>863575409</v>
+      </c>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="N25" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25">
+        <v>47256210</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
+      <c r="N26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26">
+        <v>96318511</v>
+      </c>
+    </row>
+    <row r="27" spans="6:15">
       <c r="F27" t="s">
         <v>7</v>
       </c>
       <c r="G27">
         <v>238541434</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27">
+        <v>253021838</v>
       </c>
     </row>
   </sheetData>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -358,6 +358,13 @@
   </si>
   <si>
     <t>Demsod丶血狼</t>
+  </si>
+  <si>
+    <t>饕兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曦夜不是洗衣液</t>
   </si>
 </sst>
 </file>
@@ -800,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="158" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="158" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1318,6 +1325,12 @@
       </c>
     </row>
     <row r="25" spans="6:15">
+      <c r="L25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25">
+        <v>55774054</v>
+      </c>
       <c r="N25" t="s">
         <v>72</v>
       </c>
@@ -1326,6 +1339,12 @@
       </c>
     </row>
     <row r="26" spans="6:15">
+      <c r="L26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26">
+        <v>1794669457</v>
+      </c>
       <c r="N26" t="s">
         <v>73</v>
       </c>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -365,13 +365,22 @@
   </si>
   <si>
     <t>曦夜不是洗衣液</t>
+  </si>
+  <si>
+    <t>我很无聊TT</t>
+  </si>
+  <si>
+    <t>Y丶s圣</t>
+  </si>
+  <si>
+    <t>剑十二</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,6 +403,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -524,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:O27"/>
+  <dimension ref="F6:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="158" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="158" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1359,11 +1377,33 @@
       <c r="G27">
         <v>238541434</v>
       </c>
+      <c r="L27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27">
+        <v>4775200</v>
+      </c>
       <c r="N27" t="s">
         <v>74</v>
       </c>
       <c r="O27">
         <v>253021838</v>
+      </c>
+    </row>
+    <row r="28" spans="6:15" ht="15">
+      <c r="L28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28">
+        <v>5934560</v>
+      </c>
+    </row>
+    <row r="29" spans="6:15">
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29">
+        <v>1556972891</v>
       </c>
     </row>
   </sheetData>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -374,6 +374,28 @@
   </si>
   <si>
     <t>剑十二</t>
+  </si>
+  <si>
+    <t>锐BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3013浪子</t>
+  </si>
+  <si>
+    <t>蒙奇D丶ACE</t>
+  </si>
+  <si>
+    <t>夕灬梦颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林听风雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安妮的吕小布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,6 +535,9 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:O29"/>
+  <dimension ref="F6:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="158" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="158" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -845,54 +867,54 @@
   <sheetData>
     <row r="6" spans="6:15" ht="15" thickBot="1"/>
     <row r="7" spans="6:15">
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="6:15">
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="6:15">
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="6:15" ht="15" thickBot="1">
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="6:15">
       <c r="F11" t="s">
@@ -1391,7 +1413,7 @@
       </c>
     </row>
     <row r="28" spans="6:15" ht="15">
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M28">
@@ -1404,6 +1426,54 @@
       </c>
       <c r="M29">
         <v>1556972891</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15">
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>1308263866</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15">
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31">
+        <v>819949938</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15">
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32">
+        <v>935082247</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33">
+        <v>874526666</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34">
+        <v>274143214</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13">
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35">
+        <v>242646218</v>
       </c>
     </row>
   </sheetData>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="152511" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -354,9 +354,6 @@
     <t>℡悠悠∮over</t>
   </si>
   <si>
-    <t>Another</t>
-  </si>
-  <si>
     <t>Demsod丶血狼</t>
   </si>
   <si>
@@ -396,6 +393,149 @@
   <si>
     <t>安妮的吕小布</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o沧月o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strars112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋律0o0</t>
+  </si>
+  <si>
+    <t>NEESON</t>
+  </si>
+  <si>
+    <t>肉搏龙哥</t>
+  </si>
+  <si>
+    <t>小丨情兽</t>
+  </si>
+  <si>
+    <t>永恒镇神</t>
+  </si>
+  <si>
+    <t>落叶规耕</t>
+  </si>
+  <si>
+    <t>白哥哥啊</t>
+  </si>
+  <si>
+    <t>大头三</t>
+  </si>
+  <si>
+    <t>囚勒个钱</t>
+  </si>
+  <si>
+    <t>红尘梦</t>
+  </si>
+  <si>
+    <t>观虫</t>
+  </si>
+  <si>
+    <t>zm丶yao</t>
+  </si>
+  <si>
+    <t>丶简诺龄</t>
+  </si>
+  <si>
+    <t>去污粉5415</t>
+  </si>
+  <si>
+    <t>OUQIJUN</t>
+  </si>
+  <si>
+    <t>yjwgss</t>
+  </si>
+  <si>
+    <t>演技不够#5811</t>
+  </si>
+  <si>
+    <t>nonona</t>
+  </si>
+  <si>
+    <t>归魂路</t>
+  </si>
+  <si>
+    <t>菊花猫猫</t>
+  </si>
+  <si>
+    <t>高调不是华丽</t>
+  </si>
+  <si>
+    <t>sa小混混</t>
+  </si>
+  <si>
+    <t>龙星雨</t>
+  </si>
+  <si>
+    <t>星雨菜鸟</t>
+  </si>
+  <si>
+    <t>su泽</t>
+  </si>
+  <si>
+    <t>江山为聘</t>
+  </si>
+  <si>
+    <t>听说你有网瘾#5313</t>
+  </si>
+  <si>
+    <t>风萧兮兮易水寒</t>
+  </si>
+  <si>
+    <t>粗长硬黑久</t>
+  </si>
+  <si>
+    <t>妞妞酸酸</t>
+  </si>
+  <si>
+    <t>枫叶飘飘灬</t>
+  </si>
+  <si>
+    <t>轩灬诺言</t>
+  </si>
+  <si>
+    <t>绝望的辣条#5920</t>
+  </si>
+  <si>
+    <t>frank#5986</t>
+  </si>
+  <si>
+    <t>军爸爸丶</t>
+  </si>
+  <si>
+    <t>旧地重游z</t>
+  </si>
+  <si>
+    <t>谁打的我</t>
+  </si>
+  <si>
+    <t>love默默兽兽</t>
+  </si>
+  <si>
+    <t>胖头鱼丷</t>
+  </si>
+  <si>
+    <t>无语了俄</t>
+  </si>
+  <si>
+    <t>夜寒hhh</t>
+  </si>
+  <si>
+    <t>Anotherc</t>
+  </si>
+  <si>
+    <t>Misui</t>
+  </si>
+  <si>
+    <t>心野混情场</t>
+  </si>
+  <si>
+    <t>简单灬情</t>
   </si>
 </sst>
 </file>
@@ -533,10 +673,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:O35"/>
+  <dimension ref="F6:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScale="158" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="158" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -863,60 +1006,62 @@
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:15" ht="15" thickBot="1"/>
-    <row r="7" spans="6:15">
-      <c r="F7" s="2" t="s">
+    <row r="6" spans="6:17" ht="15" thickBot="1"/>
+    <row r="7" spans="6:17">
+      <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="6:15">
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="6:15">
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="6:15" ht="15" thickBot="1">
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="6:15">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="6:17">
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="6:17">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="6:17" ht="15" thickBot="1">
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="6:17">
       <c r="F11" t="s">
         <v>1</v>
       </c>
@@ -947,8 +1092,14 @@
       <c r="O11">
         <v>1846898150</v>
       </c>
-    </row>
-    <row r="12" spans="6:15">
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11">
+        <v>4943346</v>
+      </c>
+    </row>
+    <row r="12" spans="6:17">
       <c r="F12" t="s">
         <v>2</v>
       </c>
@@ -979,8 +1130,14 @@
       <c r="O12">
         <v>162418494</v>
       </c>
-    </row>
-    <row r="13" spans="6:15">
+      <c r="P12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12">
+        <v>655724335</v>
+      </c>
+    </row>
+    <row r="13" spans="6:17">
       <c r="F13" t="s">
         <v>3</v>
       </c>
@@ -1011,8 +1168,14 @@
       <c r="O13">
         <v>1028656343</v>
       </c>
-    </row>
-    <row r="14" spans="6:15">
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13">
+        <v>1300925723</v>
+      </c>
+    </row>
+    <row r="14" spans="6:17">
       <c r="F14" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1206,14 @@
       <c r="O14">
         <v>871412081</v>
       </c>
-    </row>
-    <row r="15" spans="6:15">
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14">
+        <v>526128524</v>
+      </c>
+    </row>
+    <row r="15" spans="6:17">
       <c r="F15" t="s">
         <v>5</v>
       </c>
@@ -1075,8 +1244,14 @@
       <c r="O15">
         <v>724251537</v>
       </c>
-    </row>
-    <row r="16" spans="6:15">
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15">
+        <v>527932086</v>
+      </c>
+    </row>
+    <row r="16" spans="6:17">
       <c r="F16" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1282,14 @@
       <c r="O16">
         <v>572061793</v>
       </c>
-    </row>
-    <row r="17" spans="6:15">
+      <c r="P16" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16">
+        <v>491536351</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17">
       <c r="F17" t="s">
         <v>10</v>
       </c>
@@ -1139,8 +1320,14 @@
       <c r="O17">
         <v>1562039753</v>
       </c>
-    </row>
-    <row r="18" spans="6:15">
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17">
+        <v>765412438</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17">
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -1171,8 +1358,14 @@
       <c r="O18">
         <v>27535638</v>
       </c>
-    </row>
-    <row r="19" spans="6:15">
+      <c r="P18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18">
+        <v>1807059619</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17">
       <c r="F19" t="s">
         <v>6</v>
       </c>
@@ -1203,8 +1396,14 @@
       <c r="O19">
         <v>2856770</v>
       </c>
-    </row>
-    <row r="20" spans="6:15">
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19">
+        <v>158219634</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17">
       <c r="F20" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1434,14 @@
       <c r="O20">
         <v>29748027</v>
       </c>
-    </row>
-    <row r="21" spans="6:15">
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20">
+        <v>812702019</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17">
       <c r="F21" t="s">
         <v>12</v>
       </c>
@@ -1267,8 +1472,14 @@
       <c r="O21">
         <v>78547297</v>
       </c>
-    </row>
-    <row r="22" spans="6:15">
+      <c r="P21" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21">
+        <v>93444649</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -1299,8 +1510,14 @@
       <c r="O22">
         <v>1691009533</v>
       </c>
-    </row>
-    <row r="23" spans="6:15">
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22">
+        <v>1652902274</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17">
       <c r="F23" t="s">
         <v>14</v>
       </c>
@@ -1331,8 +1548,14 @@
       <c r="O23">
         <v>108509507</v>
       </c>
-    </row>
-    <row r="24" spans="6:15">
+      <c r="P23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23">
+        <v>42083283</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17">
       <c r="F24" t="s">
         <v>15</v>
       </c>
@@ -1363,10 +1586,16 @@
       <c r="O24">
         <v>863575409</v>
       </c>
-    </row>
-    <row r="25" spans="6:15">
+      <c r="P24" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24">
+        <v>79706688</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17">
       <c r="L25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M25">
         <v>55774054</v>
@@ -1377,22 +1606,34 @@
       <c r="O25">
         <v>47256210</v>
       </c>
-    </row>
-    <row r="26" spans="6:15">
+      <c r="P25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25">
+        <v>81738293</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17">
       <c r="L26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M26">
         <v>1794669457</v>
       </c>
       <c r="N26" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O26">
-        <v>96318511</v>
-      </c>
-    </row>
-    <row r="27" spans="6:15">
+        <v>386002974</v>
+      </c>
+      <c r="P26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q26">
+        <v>3334224</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17">
       <c r="F27" t="s">
         <v>7</v>
       </c>
@@ -1400,80 +1641,294 @@
         <v>238541434</v>
       </c>
       <c r="L27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M27">
         <v>4775200</v>
       </c>
       <c r="N27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O27">
         <v>253021838</v>
       </c>
-    </row>
-    <row r="28" spans="6:15" ht="15">
+      <c r="P27" s="2">
+        <v>13580703577</v>
+      </c>
+      <c r="Q27">
+        <v>705577564</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" ht="15">
       <c r="L28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M28">
         <v>5934560</v>
       </c>
-    </row>
-    <row r="29" spans="6:15">
+      <c r="P28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q28">
+        <v>1834015365</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17">
       <c r="L29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M29">
         <v>1556972891</v>
       </c>
-    </row>
-    <row r="30" spans="6:15">
+      <c r="P29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29">
+        <v>249745215</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17">
       <c r="L30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M30">
         <v>1308263866</v>
       </c>
-    </row>
-    <row r="31" spans="6:15">
+      <c r="P30" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30">
+        <v>936721376</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17">
       <c r="L31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M31">
         <v>819949938</v>
       </c>
-    </row>
-    <row r="32" spans="6:15">
+      <c r="P31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q31">
+        <v>96122563</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17">
       <c r="L32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M32">
         <v>935082247</v>
       </c>
-    </row>
-    <row r="33" spans="12:13">
+      <c r="P32" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q32">
+        <v>794534180</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17">
       <c r="L33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M33">
         <v>874526666</v>
       </c>
-    </row>
-    <row r="34" spans="12:13">
+      <c r="P33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q33">
+        <v>242232349</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17">
       <c r="L34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M34">
         <v>274143214</v>
       </c>
-    </row>
-    <row r="35" spans="12:13">
+      <c r="P34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34">
+        <v>99200445</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17">
       <c r="L35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M35">
         <v>242646218</v>
+      </c>
+      <c r="P35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q35">
+        <v>17295550</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17">
+      <c r="L36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36">
+        <v>42780764</v>
+      </c>
+      <c r="P36" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q36">
+        <v>192227001</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17">
+      <c r="L37" t="s">
+        <v>86</v>
+      </c>
+      <c r="M37">
+        <v>15784280</v>
+      </c>
+      <c r="P37" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q37">
+        <v>500660555</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17">
+      <c r="P38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q38">
+        <v>1321008731</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17">
+      <c r="P39" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q39">
+        <v>917107829</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17">
+      <c r="L40" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40">
+        <v>263166628</v>
+      </c>
+      <c r="P40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q40">
+        <v>1277254148</v>
+      </c>
+    </row>
+    <row r="41" spans="12:17">
+      <c r="L41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41">
+        <v>343567476</v>
+      </c>
+      <c r="P41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q41">
+        <v>556905161</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17">
+      <c r="L42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M42">
+        <v>991993981</v>
+      </c>
+      <c r="P42" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q42">
+        <v>55162747</v>
+      </c>
+    </row>
+    <row r="43" spans="12:17">
+      <c r="L43" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43">
+        <v>41292785</v>
+      </c>
+      <c r="P43" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q43">
+        <v>395306233</v>
+      </c>
+    </row>
+    <row r="44" spans="12:17">
+      <c r="L44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44">
+        <v>199066564</v>
+      </c>
+      <c r="P44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q44">
+        <v>442043076</v>
+      </c>
+    </row>
+    <row r="45" spans="12:17">
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45">
+        <v>58301014</v>
+      </c>
+      <c r="P45" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q45">
+        <v>987238722</v>
+      </c>
+    </row>
+    <row r="46" spans="12:17">
+      <c r="P46" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q46">
+        <v>454437652</v>
+      </c>
+    </row>
+    <row r="47" spans="12:17">
+      <c r="P47" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q47">
+        <v>50731632</v>
+      </c>
+    </row>
+    <row r="48" spans="12:17">
+      <c r="P48" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q48">
+        <v>1088397663</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17">
+      <c r="P49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49">
+        <v>1193547207</v>
       </c>
     </row>
   </sheetData>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>赞助人员列表</t>
     <rPh sb="0" eb="1">
@@ -536,6 +536,67 @@
   </si>
   <si>
     <t>简单灬情</t>
+  </si>
+  <si>
+    <t>王老四</t>
+  </si>
+  <si>
+    <t>欧豪666</t>
+  </si>
+  <si>
+    <t>Biu凯凯</t>
+  </si>
+  <si>
+    <t>DDxZZD</t>
+  </si>
+  <si>
+    <t>莫魂</t>
+  </si>
+  <si>
+    <t>沈卡子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思四</t>
+  </si>
+  <si>
+    <t>神天道至尊</t>
+  </si>
+  <si>
+    <t>狂吃小笼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghj999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7kss</t>
+  </si>
+  <si>
+    <t>阿迪王上</t>
+  </si>
+  <si>
+    <t>灬Cyf</t>
+  </si>
+  <si>
+    <t>奈奈吖丶</t>
+  </si>
+  <si>
+    <t>丨朽木</t>
+  </si>
+  <si>
+    <t>小V亮1</t>
+  </si>
+  <si>
+    <t>逍-遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小林先生0</t>
+  </si>
+  <si>
+    <t>哔哔哔哔哔哔丶</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:Q49"/>
+  <dimension ref="F6:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H34" zoomScale="158" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43:M45"/>
+    <sheetView tabSelected="1" topLeftCell="I49" zoomScale="158" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1908,6 +1969,12 @@
       </c>
     </row>
     <row r="47" spans="12:17">
+      <c r="L47" t="s">
+        <v>132</v>
+      </c>
+      <c r="M47">
+        <v>904823142</v>
+      </c>
       <c r="P47" t="s">
         <v>122</v>
       </c>
@@ -1916,6 +1983,12 @@
       </c>
     </row>
     <row r="48" spans="12:17">
+      <c r="L48" t="s">
+        <v>133</v>
+      </c>
+      <c r="M48">
+        <v>13683093</v>
+      </c>
       <c r="P48" t="s">
         <v>123</v>
       </c>
@@ -1923,12 +1996,146 @@
         <v>1088397663</v>
       </c>
     </row>
-    <row r="49" spans="16:17">
+    <row r="49" spans="12:17">
+      <c r="L49" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49">
+        <v>1242297465</v>
+      </c>
       <c r="P49" t="s">
         <v>124</v>
       </c>
       <c r="Q49">
         <v>1193547207</v>
+      </c>
+    </row>
+    <row r="50" spans="12:17">
+      <c r="L50" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50">
+        <v>610812043</v>
+      </c>
+    </row>
+    <row r="51" spans="12:17">
+      <c r="L51" t="s">
+        <v>136</v>
+      </c>
+      <c r="M51">
+        <v>225975698</v>
+      </c>
+    </row>
+    <row r="52" spans="12:17">
+      <c r="L52" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52">
+        <v>1778330124</v>
+      </c>
+    </row>
+    <row r="53" spans="12:17">
+      <c r="L53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M53">
+        <v>1021570043</v>
+      </c>
+    </row>
+    <row r="54" spans="12:17">
+      <c r="L54" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54">
+        <v>22278263</v>
+      </c>
+    </row>
+    <row r="55" spans="12:17">
+      <c r="L55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M55">
+        <v>534339887</v>
+      </c>
+    </row>
+    <row r="56" spans="12:17">
+      <c r="L56" t="s">
+        <v>141</v>
+      </c>
+      <c r="M56">
+        <v>46380924</v>
+      </c>
+    </row>
+    <row r="57" spans="12:17">
+      <c r="L57" t="s">
+        <v>142</v>
+      </c>
+      <c r="M57">
+        <v>434531878</v>
+      </c>
+    </row>
+    <row r="58" spans="12:17">
+      <c r="L58" t="s">
+        <v>143</v>
+      </c>
+      <c r="M58">
+        <v>48827206</v>
+      </c>
+    </row>
+    <row r="59" spans="12:17">
+      <c r="L59" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59">
+        <v>23689807</v>
+      </c>
+    </row>
+    <row r="60" spans="12:17">
+      <c r="L60" t="s">
+        <v>145</v>
+      </c>
+      <c r="M60">
+        <v>601303810</v>
+      </c>
+    </row>
+    <row r="61" spans="12:17">
+      <c r="L61" t="s">
+        <v>146</v>
+      </c>
+      <c r="M61">
+        <v>2024814813</v>
+      </c>
+    </row>
+    <row r="62" spans="12:17">
+      <c r="L62" t="s">
+        <v>147</v>
+      </c>
+      <c r="M62">
+        <v>1965676132</v>
+      </c>
+    </row>
+    <row r="63" spans="12:17">
+      <c r="L63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M63">
+        <v>1356170852</v>
+      </c>
+    </row>
+    <row r="64" spans="12:17">
+      <c r="L64" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64">
+        <v>730864612</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13">
+      <c r="L65" t="s">
+        <v>150</v>
+      </c>
+      <c r="M65">
+        <v>415945636</v>
       </c>
     </row>
   </sheetData>

--- a/赞助人员列表.xlsx
+++ b/赞助人员列表.xlsx
@@ -278,325 +278,325 @@
     <t>我才不需要</t>
   </si>
   <si>
+    <t>MGODLIKEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬱鬱鬱吃屎鬱鬱鬱</t>
+  </si>
+  <si>
+    <t>Tiki丨波比</t>
+  </si>
+  <si>
+    <t>十一月是我de幸运</t>
+  </si>
+  <si>
+    <t>心说我不会</t>
+  </si>
+  <si>
+    <t>san</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunhua1994</t>
+  </si>
+  <si>
+    <t>孙天才时尚</t>
+  </si>
+  <si>
+    <t>流年有点冷</t>
+  </si>
+  <si>
+    <t>水果西瓜</t>
+  </si>
+  <si>
+    <t>翻车の司机</t>
+  </si>
+  <si>
+    <t>威小杨</t>
+  </si>
+  <si>
+    <t>喵了个咪了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六江波本#5969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御姐沁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逝丶无心丿</t>
+  </si>
+  <si>
+    <t>霸气零点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四兮禾斗</t>
+  </si>
+  <si>
+    <t>静静等待丶</t>
+  </si>
+  <si>
+    <t>lidonghao729</t>
+  </si>
+  <si>
+    <t>没空解释了上车吧</t>
+  </si>
+  <si>
+    <t>℡悠悠∮over</t>
+  </si>
+  <si>
+    <t>Demsod丶血狼</t>
+  </si>
+  <si>
+    <t>饕兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曦夜不是洗衣液</t>
+  </si>
+  <si>
+    <t>我很无聊TT</t>
+  </si>
+  <si>
+    <t>Y丶s圣</t>
+  </si>
+  <si>
+    <t>剑十二</t>
+  </si>
+  <si>
+    <t>锐BB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3013浪子</t>
+  </si>
+  <si>
+    <t>蒙奇D丶ACE</t>
+  </si>
+  <si>
+    <t>夕灬梦颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林听风雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安妮的吕小布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o沧月o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strars112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋律0o0</t>
+  </si>
+  <si>
+    <t>NEESON</t>
+  </si>
+  <si>
+    <t>肉搏龙哥</t>
+  </si>
+  <si>
+    <t>小丨情兽</t>
+  </si>
+  <si>
+    <t>永恒镇神</t>
+  </si>
+  <si>
+    <t>落叶规耕</t>
+  </si>
+  <si>
+    <t>白哥哥啊</t>
+  </si>
+  <si>
+    <t>大头三</t>
+  </si>
+  <si>
+    <t>囚勒个钱</t>
+  </si>
+  <si>
+    <t>红尘梦</t>
+  </si>
+  <si>
+    <t>观虫</t>
+  </si>
+  <si>
+    <t>zm丶yao</t>
+  </si>
+  <si>
+    <t>丶简诺龄</t>
+  </si>
+  <si>
+    <t>去污粉5415</t>
+  </si>
+  <si>
+    <t>OUQIJUN</t>
+  </si>
+  <si>
+    <t>yjwgss</t>
+  </si>
+  <si>
+    <t>演技不够#5811</t>
+  </si>
+  <si>
+    <t>nonona</t>
+  </si>
+  <si>
+    <t>归魂路</t>
+  </si>
+  <si>
+    <t>菊花猫猫</t>
+  </si>
+  <si>
+    <t>高调不是华丽</t>
+  </si>
+  <si>
+    <t>sa小混混</t>
+  </si>
+  <si>
+    <t>龙星雨</t>
+  </si>
+  <si>
+    <t>星雨菜鸟</t>
+  </si>
+  <si>
+    <t>su泽</t>
+  </si>
+  <si>
+    <t>江山为聘</t>
+  </si>
+  <si>
+    <t>听说你有网瘾#5313</t>
+  </si>
+  <si>
+    <t>风萧兮兮易水寒</t>
+  </si>
+  <si>
+    <t>粗长硬黑久</t>
+  </si>
+  <si>
+    <t>妞妞酸酸</t>
+  </si>
+  <si>
+    <t>枫叶飘飘灬</t>
+  </si>
+  <si>
+    <t>轩灬诺言</t>
+  </si>
+  <si>
+    <t>绝望的辣条#5920</t>
+  </si>
+  <si>
+    <t>frank#5986</t>
+  </si>
+  <si>
+    <t>军爸爸丶</t>
+  </si>
+  <si>
+    <t>旧地重游z</t>
+  </si>
+  <si>
+    <t>谁打的我</t>
+  </si>
+  <si>
+    <t>love默默兽兽</t>
+  </si>
+  <si>
+    <t>胖头鱼丷</t>
+  </si>
+  <si>
+    <t>无语了俄</t>
+  </si>
+  <si>
+    <t>夜寒hhh</t>
+  </si>
+  <si>
+    <t>Anotherc</t>
+  </si>
+  <si>
+    <t>Misui</t>
+  </si>
+  <si>
+    <t>心野混情场</t>
+  </si>
+  <si>
+    <t>简单灬情</t>
+  </si>
+  <si>
+    <t>王老四</t>
+  </si>
+  <si>
+    <t>欧豪666</t>
+  </si>
+  <si>
+    <t>Biu凯凯</t>
+  </si>
+  <si>
+    <t>DDxZZD</t>
+  </si>
+  <si>
+    <t>莫魂</t>
+  </si>
+  <si>
+    <t>沈卡子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思四</t>
+  </si>
+  <si>
+    <t>神天道至尊</t>
+  </si>
+  <si>
+    <t>狂吃小笼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghj999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7kss</t>
+  </si>
+  <si>
+    <t>阿迪王上</t>
+  </si>
+  <si>
+    <t>灬Cyf</t>
+  </si>
+  <si>
+    <t>奈奈吖丶</t>
+  </si>
+  <si>
+    <t>丨朽木</t>
+  </si>
+  <si>
+    <t>小V亮1</t>
+  </si>
+  <si>
+    <t>逍-遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小林先生0</t>
+  </si>
+  <si>
+    <t>哔哔哔哔哔哔丶</t>
+  </si>
+  <si>
     <t>play</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGODLIKEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬱鬱鬱吃屎鬱鬱鬱</t>
-  </si>
-  <si>
-    <t>Tiki丨波比</t>
-  </si>
-  <si>
-    <t>十一月是我de幸运</t>
-  </si>
-  <si>
-    <t>心说我不会</t>
-  </si>
-  <si>
-    <t>san</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yunhua1994</t>
-  </si>
-  <si>
-    <t>孙天才时尚</t>
-  </si>
-  <si>
-    <t>流年有点冷</t>
-  </si>
-  <si>
-    <t>水果西瓜</t>
-  </si>
-  <si>
-    <t>翻车の司机</t>
-  </si>
-  <si>
-    <t>威小杨</t>
-  </si>
-  <si>
-    <t>喵了个咪了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六江波本#5969</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御姐沁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逝丶无心丿</t>
-  </si>
-  <si>
-    <t>霸气零点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四兮禾斗</t>
-  </si>
-  <si>
-    <t>静静等待丶</t>
-  </si>
-  <si>
-    <t>lidonghao729</t>
-  </si>
-  <si>
-    <t>没空解释了上车吧</t>
-  </si>
-  <si>
-    <t>℡悠悠∮over</t>
-  </si>
-  <si>
-    <t>Demsod丶血狼</t>
-  </si>
-  <si>
-    <t>饕兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曦夜不是洗衣液</t>
-  </si>
-  <si>
-    <t>我很无聊TT</t>
-  </si>
-  <si>
-    <t>Y丶s圣</t>
-  </si>
-  <si>
-    <t>剑十二</t>
-  </si>
-  <si>
-    <t>锐BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3013浪子</t>
-  </si>
-  <si>
-    <t>蒙奇D丶ACE</t>
-  </si>
-  <si>
-    <t>夕灬梦颜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹林听风雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安妮的吕小布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o沧月o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strars112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋律0o0</t>
-  </si>
-  <si>
-    <t>NEESON</t>
-  </si>
-  <si>
-    <t>肉搏龙哥</t>
-  </si>
-  <si>
-    <t>小丨情兽</t>
-  </si>
-  <si>
-    <t>永恒镇神</t>
-  </si>
-  <si>
-    <t>落叶规耕</t>
-  </si>
-  <si>
-    <t>白哥哥啊</t>
-  </si>
-  <si>
-    <t>大头三</t>
-  </si>
-  <si>
-    <t>囚勒个钱</t>
-  </si>
-  <si>
-    <t>红尘梦</t>
-  </si>
-  <si>
-    <t>观虫</t>
-  </si>
-  <si>
-    <t>zm丶yao</t>
-  </si>
-  <si>
-    <t>丶简诺龄</t>
-  </si>
-  <si>
-    <t>去污粉5415</t>
-  </si>
-  <si>
-    <t>OUQIJUN</t>
-  </si>
-  <si>
-    <t>yjwgss</t>
-  </si>
-  <si>
-    <t>演技不够#5811</t>
-  </si>
-  <si>
-    <t>nonona</t>
-  </si>
-  <si>
-    <t>归魂路</t>
-  </si>
-  <si>
-    <t>菊花猫猫</t>
-  </si>
-  <si>
-    <t>高调不是华丽</t>
-  </si>
-  <si>
-    <t>sa小混混</t>
-  </si>
-  <si>
-    <t>龙星雨</t>
-  </si>
-  <si>
-    <t>星雨菜鸟</t>
-  </si>
-  <si>
-    <t>su泽</t>
-  </si>
-  <si>
-    <t>江山为聘</t>
-  </si>
-  <si>
-    <t>听说你有网瘾#5313</t>
-  </si>
-  <si>
-    <t>风萧兮兮易水寒</t>
-  </si>
-  <si>
-    <t>粗长硬黑久</t>
-  </si>
-  <si>
-    <t>妞妞酸酸</t>
-  </si>
-  <si>
-    <t>枫叶飘飘灬</t>
-  </si>
-  <si>
-    <t>轩灬诺言</t>
-  </si>
-  <si>
-    <t>绝望的辣条#5920</t>
-  </si>
-  <si>
-    <t>frank#5986</t>
-  </si>
-  <si>
-    <t>军爸爸丶</t>
-  </si>
-  <si>
-    <t>旧地重游z</t>
-  </si>
-  <si>
-    <t>谁打的我</t>
-  </si>
-  <si>
-    <t>love默默兽兽</t>
-  </si>
-  <si>
-    <t>胖头鱼丷</t>
-  </si>
-  <si>
-    <t>无语了俄</t>
-  </si>
-  <si>
-    <t>夜寒hhh</t>
-  </si>
-  <si>
-    <t>Anotherc</t>
-  </si>
-  <si>
-    <t>Misui</t>
-  </si>
-  <si>
-    <t>心野混情场</t>
-  </si>
-  <si>
-    <t>简单灬情</t>
-  </si>
-  <si>
-    <t>王老四</t>
-  </si>
-  <si>
-    <t>欧豪666</t>
-  </si>
-  <si>
-    <t>Biu凯凯</t>
-  </si>
-  <si>
-    <t>DDxZZD</t>
-  </si>
-  <si>
-    <t>莫魂</t>
-  </si>
-  <si>
-    <t>沈卡子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张思四</t>
-  </si>
-  <si>
-    <t>神天道至尊</t>
-  </si>
-  <si>
-    <t>狂吃小笼包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ghj999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7kss</t>
-  </si>
-  <si>
-    <t>阿迪王上</t>
-  </si>
-  <si>
-    <t>灬Cyf</t>
-  </si>
-  <si>
-    <t>奈奈吖丶</t>
-  </si>
-  <si>
-    <t>丨朽木</t>
-  </si>
-  <si>
-    <t>小V亮1</t>
-  </si>
-  <si>
-    <t>逍-遥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小林先生0</t>
-  </si>
-  <si>
-    <t>哔哔哔哔哔哔丶</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I49" zoomScale="158" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="158" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1148,13 +1148,13 @@
         <v>1199483482</v>
       </c>
       <c r="N11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11">
         <v>1846898150</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11">
         <v>4943346</v>
@@ -1186,13 +1186,13 @@
         <v>85817056</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O12">
         <v>162418494</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12">
         <v>655724335</v>
@@ -1224,13 +1224,13 @@
         <v>1884797690</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13">
         <v>1028656343</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q13">
         <v>1300925723</v>
@@ -1262,13 +1262,13 @@
         <v>138245006</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O14">
         <v>871412081</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14">
         <v>526128524</v>
@@ -1300,13 +1300,13 @@
         <v>55883798</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O15">
         <v>724251537</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q15">
         <v>527932086</v>
@@ -1338,13 +1338,13 @@
         <v>237209239</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>572061793</v>
       </c>
       <c r="P16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q16">
         <v>491536351</v>
@@ -1370,19 +1370,19 @@
         <v>848895504</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M17">
         <v>208207478</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <v>1562039753</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q17">
         <v>765412438</v>
@@ -1408,19 +1408,19 @@
         <v>970908405</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18">
         <v>764958705</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18">
         <v>27535638</v>
       </c>
       <c r="P18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q18">
         <v>1807059619</v>
@@ -1446,19 +1446,19 @@
         <v>1406966725</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19">
         <v>1556955637</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O19">
         <v>2856770</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q19">
         <v>158219634</v>
@@ -1484,19 +1484,19 @@
         <v>476387019</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20">
         <v>769983234</v>
       </c>
       <c r="N20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20">
         <v>29748027</v>
       </c>
       <c r="P20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q20">
         <v>812702019</v>
@@ -1522,19 +1522,19 @@
         <v>1407806903</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21">
         <v>1018574645</v>
       </c>
       <c r="N21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21">
         <v>78547297</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q21">
         <v>93444649</v>
@@ -1560,19 +1560,19 @@
         <v>39350822</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22">
         <v>1602970119</v>
       </c>
       <c r="N22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22">
         <v>1691009533</v>
       </c>
       <c r="P22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q22">
         <v>1652902274</v>
@@ -1598,19 +1598,19 @@
         <v>947015907</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23">
         <v>1968941945</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23">
         <v>108509507</v>
       </c>
       <c r="P23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q23">
         <v>42083283</v>
@@ -1636,19 +1636,19 @@
         <v>1524326451</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M24">
         <v>281722192</v>
       </c>
       <c r="N24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24">
         <v>863575409</v>
       </c>
       <c r="P24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q24">
         <v>79706688</v>
@@ -1656,19 +1656,19 @@
     </row>
     <row r="25" spans="6:17">
       <c r="L25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M25">
         <v>55774054</v>
       </c>
       <c r="N25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O25">
         <v>47256210</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q25">
         <v>81738293</v>
@@ -1676,19 +1676,19 @@
     </row>
     <row r="26" spans="6:17">
       <c r="L26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M26">
         <v>1794669457</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O26">
         <v>386002974</v>
       </c>
       <c r="P26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q26">
         <v>3334224</v>
@@ -1702,13 +1702,13 @@
         <v>238541434</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M27">
         <v>4775200</v>
       </c>
       <c r="N27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O27">
         <v>253021838</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="28" spans="6:17" ht="15">
       <c r="L28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M28">
         <v>5934560</v>
       </c>
       <c r="P28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q28">
         <v>1834015365</v>
@@ -1736,13 +1736,13 @@
     </row>
     <row r="29" spans="6:17">
       <c r="L29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M29">
         <v>1556972891</v>
       </c>
       <c r="P29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29">
         <v>249745215</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="30" spans="6:17">
       <c r="L30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M30">
         <v>1308263866</v>
       </c>
       <c r="P30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q30">
         <v>936721376</v>
@@ -1764,13 +1764,13 @@
     </row>
     <row r="31" spans="6:17">
       <c r="L31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M31">
         <v>819949938</v>
       </c>
       <c r="P31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q31">
         <v>96122563</v>
@@ -1778,13 +1778,13 @@
     </row>
     <row r="32" spans="6:17">
       <c r="L32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M32">
         <v>935082247</v>
       </c>
       <c r="P32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q32">
         <v>794534180</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="33" spans="12:17">
       <c r="L33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M33">
         <v>874526666</v>
       </c>
       <c r="P33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q33">
         <v>242232349</v>
@@ -1806,13 +1806,13 @@
     </row>
     <row r="34" spans="12:17">
       <c r="L34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M34">
         <v>274143214</v>
       </c>
       <c r="P34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q34">
         <v>99200445</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="35" spans="12:17">
       <c r="L35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M35">
         <v>242646218</v>
       </c>
       <c r="P35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q35">
         <v>17295550</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="36" spans="12:17">
       <c r="L36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36">
         <v>42780764</v>
       </c>
       <c r="P36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q36">
         <v>192227001</v>
@@ -1848,13 +1848,13 @@
     </row>
     <row r="37" spans="12:17">
       <c r="L37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M37">
         <v>15784280</v>
       </c>
       <c r="P37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q37">
         <v>500660555</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="38" spans="12:17">
       <c r="P38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q38">
         <v>1321008731</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="39" spans="12:17">
       <c r="P39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q39">
         <v>917107829</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="40" spans="12:17">
       <c r="L40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M40">
         <v>263166628</v>
       </c>
       <c r="P40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q40">
         <v>1277254148</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="41" spans="12:17">
       <c r="L41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M41">
         <v>343567476</v>
       </c>
       <c r="P41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q41">
         <v>556905161</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="42" spans="12:17">
       <c r="L42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M42">
         <v>991993981</v>
       </c>
       <c r="P42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q42">
         <v>55162747</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="43" spans="12:17">
       <c r="L43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M43">
         <v>41292785</v>
       </c>
       <c r="P43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q43">
         <v>395306233</v>
@@ -1934,13 +1934,13 @@
     </row>
     <row r="44" spans="12:17">
       <c r="L44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M44">
         <v>199066564</v>
       </c>
       <c r="P44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q44">
         <v>442043076</v>
@@ -1948,13 +1948,13 @@
     </row>
     <row r="45" spans="12:17">
       <c r="L45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M45">
         <v>58301014</v>
       </c>
       <c r="P45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q45">
         <v>987238722</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="46" spans="12:17">
       <c r="P46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q46">
         <v>454437652</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="47" spans="12:17">
       <c r="L47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M47">
         <v>904823142</v>
       </c>
       <c r="P47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q47">
         <v>50731632</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="48" spans="12:17">
       <c r="L48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M48">
         <v>13683093</v>
       </c>
       <c r="P48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q48">
         <v>1088397663</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="49" spans="12:17">
       <c r="L49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M49">
         <v>1242297465</v>
       </c>
       <c r="P49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q49">
         <v>1193547207</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="50" spans="12:17">
       <c r="L50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M50">
         <v>610812043</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="51" spans="12:17">
       <c r="L51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M51">
         <v>225975698</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="52" spans="12:17">
       <c r="L52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M52">
         <v>1778330124</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="53" spans="12:17">
       <c r="L53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M53">
         <v>1021570043</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="54" spans="12:17">
       <c r="L54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M54">
         <v>22278263</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="55" spans="12:17">
       <c r="L55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M55">
         <v>534339887</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="56" spans="12:17">
       <c r="L56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M56">
         <v>46380924</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="57" spans="12:17">
       <c r="L57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M57">
         <v>434531878</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="58" spans="12:17">
       <c r="L58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M58">
         <v>48827206</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="59" spans="12:17">
       <c r="L59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M59">
         <v>23689807</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="60" spans="12:17">
       <c r="L60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M60">
         <v>601303810</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="61" spans="12:17">
       <c r="L61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M61">
         <v>2024814813</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="62" spans="12:17">
       <c r="L62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M62">
         <v>1965676132</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="63" spans="12:17">
       <c r="L63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M63">
         <v>1356170852</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="64" spans="12:17">
       <c r="L64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M64">
         <v>730864612</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="65" spans="12:13">
       <c r="L65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M65">
         <v>415945636</v>
